--- a/email/config/data.xlsx
+++ b/email/config/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Infomerica\emailSchedular\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093BB89D-9261-48DA-B777-994C1AD2B67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C0A9B-F308-41C7-82CD-614067B67954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
+    <sheet name="E-MailDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -81,9 +82,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>aaaa</t>
-  </si>
-  <si>
     <t>13/6/2024</t>
   </si>
   <si>
@@ -96,23 +94,50 @@
     <t>EmailDate</t>
   </si>
   <si>
-    <t>25/5/2024</t>
-  </si>
-  <si>
-    <t>27/5/2024</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
     <t>BCC</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>mbharath@infomericainc.com</t>
+  </si>
+  <si>
+    <t>Infomerica@123</t>
+  </si>
+  <si>
+    <t>smtp.office365.com</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>19/02/2025</t>
+  </si>
+  <si>
+    <t>psyamala@infomericainc.com</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;;**"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +153,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,10 +195,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,40 +498,40 @@
     <col min="1" max="1" width="8.88671875" style="2" collapsed="1"/>
     <col min="3" max="3" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="18.21875" customWidth="1"/>
+    <col min="7" max="8" width="18.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -491,18 +543,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -513,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -522,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -535,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -557,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -579,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -595,13 +649,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{EA80616B-109B-4997-A835-F3A0B56143D7}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{79DBDDAE-8760-4EAC-8ED4-EDDC3568686B}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{1A797539-B22B-4477-8BB7-48DF60B093D1}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{BFB12193-F5E4-4C64-AFA0-17B8F9A94028}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{D00208A8-1A35-45BF-88E3-1DB5ED2D6AEF}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{1A797539-B22B-4477-8BB7-48DF60B093D1}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{BFB12193-F5E4-4C64-AFA0-17B8F9A94028}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{D00208A8-1A35-45BF-88E3-1DB5ED2D6AEF}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{998CC8F6-1F4D-46BB-99D1-3AD656D32782}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{9789C4E7-1887-4981-9424-0A7CBA46A8F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2008F-099D-4AC3-A9C4-F36525A3AF6F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4065C820-E469-4DAD-9BC5-57FBB7EA9028}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{26C46F86-678A-4FAB-B6FC-11F25C9BF45B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>